--- a/GG V03 Testing_161122.xlsx
+++ b/GG V03 Testing_161122.xlsx
@@ -4158,7 +4158,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="124" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,8 +4271,8 @@
       <c r="H3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>200</v>
+      <c r="I3" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>288</v>
@@ -4308,11 +4308,11 @@
       <c r="G4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>200</v>
+      <c r="H4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>288</v>

--- a/GG V03 Testing_161122.xlsx
+++ b/GG V03 Testing_161122.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dev priority gg V03'!$H$1:$H$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dev priority gg V03'!$H$1:$H$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLD-Dev priority'!$A$1:$K$58</definedName>
     <definedName name="_xlnm.Database">'OLD-DescribeRastersBandProp'!$A$1:$G$6</definedName>
   </definedNames>
@@ -1216,9 +1216,6 @@
     <t>New GG V03 Group</t>
   </si>
   <si>
-    <t>Geodata - Copy</t>
-  </si>
-  <si>
     <t>Geodata - List Workspace Tables</t>
   </si>
   <si>
@@ -1253,6 +1250,9 @@
   </si>
   <si>
     <t>Geodata - Compare Extents</t>
+  </si>
+  <si>
+    <t>Help updated</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1458,8 +1458,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1603,9 +1609,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1618,7 +1635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1867,8 +1884,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1883,6 +1898,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4152,13 +4173,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="124" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4186,20 +4207,20 @@
       <c r="C1" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="90" t="s">
         <v>241</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>80</v>
@@ -4348,11 +4369,11 @@
       <c r="G5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>200</v>
+      <c r="H5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>280</v>
@@ -4386,10 +4407,12 @@
       <c r="G6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I6" s="12"/>
+      <c r="H6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -4402,20 +4425,20 @@
       <c r="A7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="12"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -4468,11 +4491,11 @@
       <c r="G9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>200</v>
+      <c r="H9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>288</v>
@@ -4508,11 +4531,11 @@
       <c r="G10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>200</v>
+      <c r="H10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>288</v>
@@ -4528,7 +4551,7 @@
       <c r="O10" s="66"/>
       <c r="P10" s="38"/>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>16</v>
       </c>
@@ -4541,16 +4564,18 @@
       <c r="D11" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>200</v>
+      <c r="H11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>38</v>
@@ -4566,68 +4591,64 @@
       </c>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="F12" s="12"/>
+      <c r="D12" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="H12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="66" t="s">
-        <v>155</v>
-      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="38"/>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="88" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="D13" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="88" t="s">
         <v>200</v>
       </c>
       <c r="J13" s="22" t="s">
@@ -4642,29 +4663,29 @@
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="90" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>200</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>200</v>
+      <c r="D14" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J14" s="22" t="s">
         <v>38</v>
@@ -4682,25 +4703,25 @@
       <c r="A15" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>200</v>
+      <c r="D15" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>38</v>
@@ -4715,112 +4736,114 @@
       <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="77" t="s">
+      <c r="A16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
     </row>
     <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="39"/>
     </row>
     <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>200</v>
+      <c r="H19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>38</v>
@@ -4830,36 +4853,30 @@
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="40"/>
-      <c r="P19" s="39"/>
-    </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="38"/>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="B20" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
       <c r="J20" s="12" t="s">
         <v>38</v>
       </c>
@@ -4867,79 +4884,81 @@
         <v>234</v>
       </c>
       <c r="L20" s="12"/>
-      <c r="M20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="40"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>158</v>
+      </c>
       <c r="P20" s="38"/>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
       <c r="J21" s="12" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>234</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="80"/>
-      <c r="N21" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="O21" s="38" t="s">
-        <v>158</v>
-      </c>
+      <c r="N21" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" s="38"/>
       <c r="P21" s="38"/>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="D22" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>234</v>
       </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80" t="s">
-        <v>216</v>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
@@ -4948,24 +4967,24 @@
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="77" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="D23" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="77" t="s">
         <v>200</v>
       </c>
       <c r="J23" s="12" t="s">
@@ -4984,78 +5003,80 @@
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="77" t="s">
-        <v>324</v>
-      </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
+      <c r="B25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -5069,101 +5090,96 @@
         <v>200</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>234</v>
       </c>
       <c r="L26" s="15"/>
-      <c r="M26" s="81" t="s">
-        <v>177</v>
+      <c r="M26" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+    </row>
+    <row r="28" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7" t="s">
+      <c r="B28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="I28" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>339</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
         <v>81</v>
@@ -5174,18 +5190,23 @@
       <c r="I29" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>234</v>
       </c>
       <c r="L29" s="12"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="38"/>
+      <c r="M29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="O29" s="38"/>
       <c r="P29" s="38"/>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>190</v>
       </c>
@@ -5209,34 +5230,30 @@
       <c r="I30" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>169</v>
-      </c>
+      <c r="L30" s="15"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="24"/>
       <c r="O30" s="38"/>
       <c r="P30" s="38"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -5249,30 +5266,30 @@
       <c r="I31" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="L31" s="15"/>
+      <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-    </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="12"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="39"/>
+    </row>
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -5285,95 +5302,95 @@
       <c r="I32" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="O32" s="40"/>
-      <c r="P32" s="39"/>
-    </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="38"/>
+    </row>
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="D33" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="L33" s="15"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="12" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="N33" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="O33" s="40"/>
+      <c r="O33" s="38"/>
       <c r="P33" s="38"/>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="D34" s="97" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="L34" s="15"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="13"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
     </row>
@@ -5381,24 +5398,24 @@
       <c r="A35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="12" t="s">
+      <c r="D35" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="97" t="s">
         <v>200</v>
       </c>
       <c r="J35" s="15" t="s">
@@ -5409,7 +5426,7 @@
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="13"/>
+      <c r="N35" s="12"/>
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
     </row>
@@ -5417,24 +5434,24 @@
       <c r="A36" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="D36" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="97" t="s">
         <v>200</v>
       </c>
       <c r="J36" s="15" t="s">
@@ -5449,18 +5466,18 @@
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -5473,30 +5490,34 @@
       <c r="I37" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J37" s="15" t="s">
+      <c r="J37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="L37" s="15"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="O37" s="38"/>
       <c r="P37" s="38"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -5506,211 +5527,197 @@
       <c r="H38" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I38" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>234</v>
-      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
       <c r="O38" s="38"/>
       <c r="P38" s="38"/>
     </row>
     <row r="39" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="A39" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-    </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+    </row>
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-    </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O40" s="40"/>
+      <c r="P40" s="39"/>
+    </row>
+    <row r="41" spans="1:16" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="D41" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
+      <c r="B41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="I41" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>234</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O41" s="40"/>
-      <c r="P41" s="39"/>
-    </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="P41" s="38"/>
+    </row>
+    <row r="42" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="B42" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
       <c r="J42" s="12" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>234</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="P42" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" s="40"/>
+      <c r="P42" s="39"/>
     </row>
     <row r="43" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="90" t="s">
+      <c r="B43" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
       <c r="J43" s="12" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>234</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>74</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N43" s="12"/>
       <c r="O43" s="40"/>
-      <c r="P43" s="39"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="90" t="s">
+      <c r="B44" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
       <c r="J44" s="12" t="s">
         <v>168</v>
       </c>
@@ -5718,30 +5725,32 @@
         <v>234</v>
       </c>
       <c r="L44" s="12"/>
-      <c r="M44" s="12" t="s">
-        <v>164</v>
-      </c>
+      <c r="M44" s="12"/>
       <c r="N44" s="12"/>
-      <c r="O44" s="40"/>
+      <c r="O44" s="38"/>
       <c r="P44" s="38"/>
     </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="D45" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
+      <c r="B45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="I45" s="12" t="s">
         <v>200</v>
       </c>
@@ -5761,24 +5770,24 @@
       <c r="A46" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" s="12" t="s">
+      <c r="D46" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="77" t="s">
         <v>200</v>
       </c>
       <c r="J46" s="12" t="s">
@@ -5795,76 +5804,70 @@
     </row>
     <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+    </row>
+    <row r="48" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-    </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
     </row>
     <row r="49" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -5885,16 +5888,16 @@
     </row>
     <row r="50" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -5913,18 +5916,18 @@
       <c r="O50" s="38"/>
       <c r="P50" s="38"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -5933,28 +5936,32 @@
       <c r="I51" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J51" s="12"/>
+      <c r="J51" s="12" t="s">
+        <v>232</v>
+      </c>
       <c r="K51" s="12" t="s">
         <v>199</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
-      <c r="O51" s="38"/>
+      <c r="O51" s="12" t="s">
+        <v>240</v>
+      </c>
       <c r="P51" s="38"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -5963,40 +5970,34 @@
       <c r="I52" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>232</v>
-      </c>
+      <c r="J52" s="12"/>
       <c r="K52" s="12" t="s">
         <v>199</v>
       </c>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
-      <c r="O52" s="12" t="s">
-        <v>240</v>
-      </c>
+      <c r="O52" s="38"/>
       <c r="P52" s="38"/>
     </row>
     <row r="53" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12" t="s">
-        <v>200</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B53" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12" t="s">
         <v>199</v>
@@ -6007,106 +6008,100 @@
       <c r="O53" s="38"/>
       <c r="P53" s="38"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="B54" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="12" t="s">
-        <v>200</v>
-      </c>
+    <row r="54" spans="1:16" s="2" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="64"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="12" t="s">
-        <v>199</v>
-      </c>
+      <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="38"/>
       <c r="P54" s="38"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-    </row>
-    <row r="56" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A57" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-    </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="N57" s="23"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="N58" s="23"/>
-      <c r="O58" s="38"/>
+      <c r="B58" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="P58" s="38"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>173</v>
       </c>
@@ -6126,146 +6121,148 @@
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P59" s="38"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
       <c r="O60" s="38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P60" s="38"/>
     </row>
-    <row r="61" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="38" t="s">
-        <v>185</v>
-      </c>
+      <c r="B61" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="K61" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="L61" s="57"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="O61" s="38"/>
       <c r="P61" s="38"/>
     </row>
     <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B62" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="K62" s="57" t="s">
+      <c r="B62" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="K62" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="L62" s="57"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="50" t="s">
-        <v>193</v>
+      <c r="L62" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="M62" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="N62" s="76" t="s">
+        <v>201</v>
       </c>
       <c r="O62" s="38"/>
       <c r="P62" s="38"/>
     </row>
-    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="B63" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="K63" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="L63" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="M63" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="N63" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
+    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
     </row>
     <row r="66" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -6291,7 +6288,7 @@
         <v>48</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -6316,88 +6313,62 @@
       <c r="A69" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+      <c r="B69" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="22"/>
-      <c r="J69" s="22" t="s">
+      <c r="J69" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22" t="s">
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14" t="s">
         <v>34</v>
       </c>
       <c r="O69" s="38"/>
       <c r="P69" s="38"/>
     </row>
-    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A70" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="B70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
       <c r="I70" s="22"/>
-      <c r="J70" s="8" t="s">
+      <c r="J70" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O70" s="38"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N70" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O70" s="54" t="s">
+        <v>171</v>
+      </c>
       <c r="P70" s="38"/>
     </row>
-    <row r="71" spans="1:16" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N71" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="O71" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="P71" s="38"/>
-    </row>
   </sheetData>
-  <autoFilter ref="H1:H71"/>
+  <autoFilter ref="H1:H70"/>
   <hyperlinks>
-    <hyperlink ref="N22" location="Describe_Rasters_Band_Propertie!A1" display="When selecting 'Band Properties' the 'Band_1' field contains many comma delimted items.. Can these be converted into fields in the results table? See LINKED Worksheet tab for example."/>
+    <hyperlink ref="N21" location="Describe_Rasters_Band_Propertie!A1" display="When selecting 'Band Properties' the 'Band_1' field contains many comma delimted items.. Can these be converted into fields in the results table? See LINKED Worksheet tab for example."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
@@ -6409,11 +6380,11 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6421,11 +6392,12 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
         <v>295</v>
       </c>
@@ -6438,23 +6410,26 @@
       <c r="D1" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="94" t="s">
         <v>308</v>
       </c>
-      <c r="F1" s="86">
-        <f>(G1/H1)*100</f>
+      <c r="G1" s="86">
+        <f>(H1/I1)*100</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <f>COUNTIF(C2:C33,"Tested")</f>
         <v>29</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <f>COUNTIF(B2:B33,"*")</f>
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
         <v>242</v>
       </c>
@@ -6467,8 +6442,24 @@
       <c r="D2" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="85"/>
+      <c r="F2" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="86">
+        <f>(I2/H2)*100</f>
+        <v>48.275862068965516</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF(C2:C33,"Tested")</f>
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIF(E2:E33,"*")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>242</v>
       </c>
@@ -6481,8 +6472,9 @@
       <c r="D3" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="85"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
         <v>242</v>
       </c>
@@ -6495,14 +6487,16 @@
       <c r="D4" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="85"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
       <c r="D5" s="82"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="82"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="85" t="s">
         <v>245</v>
       </c>
@@ -6515,8 +6509,11 @@
       <c r="D6" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
         <v>245</v>
       </c>
@@ -6529,8 +6526,11 @@
       <c r="D7" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
         <v>245</v>
       </c>
@@ -6543,8 +6543,11 @@
       <c r="D8" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
         <v>245</v>
       </c>
@@ -6557,8 +6560,11 @@
       <c r="D9" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
         <v>245</v>
       </c>
@@ -6571,8 +6577,11 @@
       <c r="D10" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>245</v>
       </c>
@@ -6581,8 +6590,9 @@
       </c>
       <c r="C11" s="82"/>
       <c r="D11" s="82"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
         <v>245</v>
       </c>
@@ -6595,8 +6605,11 @@
       <c r="D12" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
         <v>245</v>
       </c>
@@ -6609,11 +6622,14 @@
       <c r="D13" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="88" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
         <v>245</v>
       </c>
@@ -6626,8 +6642,11 @@
       <c r="D14" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="85" t="s">
         <v>245</v>
       </c>
@@ -6640,8 +6659,11 @@
       <c r="D15" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
         <v>245</v>
       </c>
@@ -6654,14 +6676,18 @@
       <c r="D16" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="82"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="82"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="85" t="s">
         <v>257</v>
       </c>
@@ -6674,11 +6700,12 @@
       <c r="D18" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="88" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="85"/>
+      <c r="F18" s="95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="85" t="s">
         <v>257</v>
       </c>
@@ -6691,8 +6718,9 @@
       <c r="D19" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="85"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
         <v>257</v>
       </c>
@@ -6705,8 +6733,11 @@
       <c r="D20" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="85" t="s">
         <v>257</v>
       </c>
@@ -6719,8 +6750,11 @@
       <c r="D21" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="85" t="s">
         <v>257</v>
       </c>
@@ -6733,8 +6767,11 @@
       <c r="D22" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="85" t="s">
         <v>257</v>
       </c>
@@ -6747,8 +6784,9 @@
       <c r="D23" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="85"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
         <v>257</v>
       </c>
@@ -6761,8 +6799,9 @@
       <c r="D24" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="85"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="85" t="s">
         <v>257</v>
       </c>
@@ -6775,8 +6814,9 @@
       <c r="D25" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="85"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
         <v>257</v>
       </c>
@@ -6789,8 +6829,9 @@
       <c r="D26" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="85"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="85" t="s">
         <v>257</v>
       </c>
@@ -6803,64 +6844,69 @@
       <c r="D27" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+      <c r="E27" s="85"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="89" t="s">
         <v>266</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="89" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="91" t="s">
+      <c r="E28" s="89"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="89" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
+      <c r="E29" s="89"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="89" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="E30" s="89"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="89" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="89"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="85" t="s">
         <v>257</v>
       </c>
@@ -6873,28 +6919,33 @@
       <c r="D32" s="85" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="91" t="s">
+      <c r="E32" s="85"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="89" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="82"/>
       <c r="B34" s="82"/>
       <c r="C34" s="82"/>
       <c r="D34" s="82"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="82"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="82" t="s">
         <v>271</v>
       </c>
@@ -6903,8 +6954,9 @@
       </c>
       <c r="C35" s="82"/>
       <c r="D35" s="82"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="82"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>271</v>
       </c>
@@ -6913,8 +6965,9 @@
       </c>
       <c r="C36" s="82"/>
       <c r="D36" s="82"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="82"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>271</v>
       </c>
@@ -6923,8 +6976,9 @@
       </c>
       <c r="C37" s="82"/>
       <c r="D37" s="82"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="82"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>271</v>
       </c>
@@ -6933,8 +6987,9 @@
       </c>
       <c r="C38" s="82"/>
       <c r="D38" s="82"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="82"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
         <v>271</v>
       </c>
@@ -6943,6 +6998,7 @@
       </c>
       <c r="C39" s="82"/>
       <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7070,34 +7126,34 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="93">
+      <c r="A3" s="91">
         <v>102</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="92" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="93" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
     </row>
     <row r="5" spans="1:6" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">

--- a/GG V03 Testing_161122.xlsx
+++ b/GG V03 Testing_161122.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OLD-Dev priority" sheetId="5" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dev priority gg V03'!$H$1:$H$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dev priority gg V03'!$H$1:$H$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLD-Dev priority'!$A$1:$K$58</definedName>
     <definedName name="_xlnm.Database">'OLD-DescribeRastersBandProp'!$A$1:$G$6</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="346">
   <si>
     <t>ID</t>
   </si>
@@ -1891,19 +1891,19 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4173,13 +4173,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="124" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,18 +4929,18 @@
       <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="94" t="s">
         <v>325</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94" t="s">
         <v>81</v>
       </c>
       <c r="H22" s="9" t="s">
@@ -5083,11 +5083,11 @@
       <c r="G26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>200</v>
+      <c r="H26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>186</v>
@@ -5149,11 +5149,11 @@
       <c r="G28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>200</v>
+      <c r="H28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>38</v>
@@ -5184,11 +5184,11 @@
       <c r="G29" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>200</v>
+      <c r="H29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>38</v>
@@ -5206,54 +5206,54 @@
       <c r="O29" s="38"/>
       <c r="P29" s="38"/>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="J30" s="15" t="s">
+      <c r="H30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="L30" s="15"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-    </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="12"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="39"/>
+    </row>
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -5266,95 +5266,95 @@
       <c r="I31" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="O31" s="40"/>
-      <c r="P31" s="39"/>
-    </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="D32" s="94" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="L32" s="15"/>
+      <c r="L32" s="12"/>
       <c r="M32" s="12" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="O32" s="40"/>
+      <c r="O32" s="38"/>
       <c r="P32" s="38"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="97" t="s">
+      <c r="B33" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="D33" s="97" t="s">
-        <v>319</v>
-      </c>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="97" t="s">
+      <c r="D33" s="94" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="I33" s="97" t="s">
+      <c r="I33" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13"/>
       <c r="O33" s="38"/>
       <c r="P33" s="38"/>
     </row>
@@ -5362,24 +5362,24 @@
       <c r="A34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="97" t="s">
+      <c r="B34" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="97" t="s">
-        <v>321</v>
-      </c>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="97" t="s">
+      <c r="D34" s="94" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="I34" s="97" t="s">
+      <c r="I34" s="94" t="s">
         <v>200</v>
       </c>
       <c r="J34" s="15" t="s">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="13"/>
+      <c r="N34" s="12"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
     </row>
@@ -5398,24 +5398,24 @@
       <c r="A35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="97" t="s">
+      <c r="B35" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="D35" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="97" t="s">
+      <c r="D35" s="94" t="s">
+        <v>323</v>
+      </c>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="97" t="s">
+      <c r="I35" s="94" t="s">
         <v>200</v>
       </c>
       <c r="J35" s="15" t="s">
@@ -5430,54 +5430,58 @@
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="97" t="s">
+      <c r="B36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D36" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="97" t="s">
+      <c r="D36" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I36" s="97" t="s">
+      <c r="I36" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>257</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -5487,159 +5491,153 @@
       <c r="H37" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>234</v>
-      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
       <c r="O37" s="38"/>
       <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" s="12" t="s">
+      <c r="A38" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-    </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+    </row>
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-    </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O39" s="40"/>
+      <c r="P39" s="39"/>
+    </row>
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
+      <c r="B40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="J40" s="12" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>234</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O40" s="40"/>
-      <c r="P40" s="39"/>
-    </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="P40" s="38"/>
+    </row>
+    <row r="41" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="B41" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
       <c r="J41" s="12" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>234</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="N41" s="12"/>
-      <c r="O41" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="P41" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" s="40"/>
+      <c r="P41" s="39"/>
     </row>
     <row r="42" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="88" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C42" s="88" t="s">
         <v>282</v>
@@ -5653,27 +5651,25 @@
       <c r="H42" s="88"/>
       <c r="I42" s="88"/>
       <c r="J42" s="12" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>234</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>74</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N42" s="12"/>
       <c r="O42" s="40"/>
-      <c r="P42" s="39"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="88" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C43" s="88" t="s">
         <v>282</v>
@@ -5693,31 +5689,35 @@
         <v>234</v>
       </c>
       <c r="L43" s="12"/>
-      <c r="M43" s="12" t="s">
-        <v>164</v>
-      </c>
+      <c r="M43" s="12"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="40"/>
+      <c r="O43" s="38"/>
       <c r="P43" s="38"/>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
+      <c r="B44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="J44" s="12" t="s">
         <v>168</v>
       </c>
@@ -5734,24 +5734,24 @@
       <c r="A45" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H45" s="12" t="s">
+      <c r="D45" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="77" t="s">
         <v>200</v>
       </c>
       <c r="J45" s="12" t="s">
@@ -5768,76 +5768,70 @@
     </row>
     <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="I46" s="77" t="s">
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+    </row>
+    <row r="47" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-    </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
     </row>
     <row r="48" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>334</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -5858,16 +5852,16 @@
     </row>
     <row r="49" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>334</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -5886,18 +5880,18 @@
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>334</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -5906,28 +5900,32 @@
       <c r="I50" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J50" s="12"/>
+      <c r="J50" s="12" t="s">
+        <v>232</v>
+      </c>
       <c r="K50" s="12" t="s">
         <v>199</v>
       </c>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
-      <c r="O50" s="38"/>
+      <c r="O50" s="12" t="s">
+        <v>240</v>
+      </c>
       <c r="P50" s="38"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>334</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -5936,40 +5934,34 @@
       <c r="I51" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>232</v>
-      </c>
+      <c r="J51" s="12"/>
       <c r="K51" s="12" t="s">
         <v>199</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
-      <c r="O51" s="12" t="s">
-        <v>240</v>
-      </c>
+      <c r="O51" s="38"/>
       <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12" t="s">
-        <v>200</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B52" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12" t="s">
         <v>199</v>
@@ -5980,104 +5972,100 @@
       <c r="O52" s="38"/>
       <c r="P52" s="38"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="B53" s="88" t="s">
-        <v>231</v>
-      </c>
-      <c r="C53" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
+    <row r="53" spans="1:16" s="2" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="64"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="12" t="s">
-        <v>199</v>
-      </c>
+      <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="38"/>
       <c r="P53" s="38"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-    </row>
-    <row r="55" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-    </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="N56" s="23"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="N57" s="23"/>
-      <c r="O57" s="38"/>
+      <c r="B57" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="P57" s="38"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>173</v>
       </c>
@@ -6097,146 +6085,148 @@
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P58" s="38"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
       <c r="O59" s="38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P59" s="38"/>
     </row>
-    <row r="60" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="38" t="s">
-        <v>185</v>
-      </c>
+      <c r="B60" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="K60" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="L60" s="57"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="O60" s="38"/>
       <c r="P60" s="38"/>
     </row>
     <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B61" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="K61" s="57" t="s">
+      <c r="B61" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="K61" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="L61" s="57"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="50" t="s">
-        <v>193</v>
+      <c r="L61" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="M61" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="N61" s="76" t="s">
+        <v>201</v>
       </c>
       <c r="O61" s="38"/>
       <c r="P61" s="38"/>
     </row>
-    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="K62" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="L62" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="M62" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="N62" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
     </row>
     <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -6262,7 +6252,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -6287,86 +6277,60 @@
       <c r="A68" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
+      <c r="B68" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="22"/>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22" t="s">
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="O68" s="38"/>
       <c r="P68" s="38"/>
     </row>
-    <row r="69" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
+      <c r="B69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
       <c r="I69" s="22"/>
-      <c r="J69" s="8" t="s">
+      <c r="J69" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O69" s="38"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N69" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O69" s="54" t="s">
+        <v>171</v>
+      </c>
       <c r="P69" s="38"/>
     </row>
-    <row r="70" spans="1:16" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="N70" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="O70" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="P70" s="38"/>
-    </row>
   </sheetData>
-  <autoFilter ref="H1:H70"/>
+  <autoFilter ref="H1:H69"/>
   <hyperlinks>
     <hyperlink ref="N21" location="Describe_Rasters_Band_Propertie!A1" display="When selecting 'Band Properties' the 'Band_1' field contains many comma delimted items.. Can these be converted into fields in the results table? See LINKED Worksheet tab for example."/>
   </hyperlinks>
@@ -6382,9 +6346,9 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6413,7 +6377,7 @@
       <c r="E1" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="91" t="s">
         <v>308</v>
       </c>
       <c r="G1" s="86">
@@ -6443,12 +6407,12 @@
         <v>298</v>
       </c>
       <c r="E2" s="85"/>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="91" t="s">
         <v>308</v>
       </c>
       <c r="G2" s="86">
         <f>(I2/H2)*100</f>
-        <v>48.275862068965516</v>
+        <v>62.068965517241381</v>
       </c>
       <c r="H2">
         <f>COUNTIF(C2:C33,"Tested")</f>
@@ -6456,7 +6420,7 @@
       </c>
       <c r="I2">
         <f>COUNTIF(E2:E33,"*")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6590,7 +6554,7 @@
       </c>
       <c r="C11" s="82"/>
       <c r="D11" s="82"/>
-      <c r="E11" s="96"/>
+      <c r="E11" s="93"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
@@ -6625,7 +6589,7 @@
       <c r="E13" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="92" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6700,8 +6664,10 @@
       <c r="D18" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="95" t="s">
+      <c r="E18" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="92" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6784,7 +6750,9 @@
       <c r="D23" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="85" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
@@ -6829,7 +6797,9 @@
       <c r="D26" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="85" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="85" t="s">
@@ -6844,7 +6814,9 @@
       <c r="D27" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="85" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="89" t="s">
@@ -7126,34 +7098,34 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="A3" s="95">
         <v>102</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="96" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="97" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
     </row>
     <row r="5" spans="1:6" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">

--- a/GG V03 Testing_161122.xlsx
+++ b/GG V03 Testing_161122.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="345">
   <si>
     <t>ID</t>
   </si>
@@ -1226,9 +1226,6 @@
   </si>
   <si>
     <t>Output location needs to be the same type, e.g. folder or geodatabase, as the inputs.</t>
-  </si>
-  <si>
-    <t>One issue to put in documentation</t>
   </si>
   <si>
     <t>Note the issue with resolution.. Ie. The output is the same as the input!</t>
@@ -1465,7 +1462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1621,21 +1618,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1892,7 +1880,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4176,10 +4163,10 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="124" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,10 +4204,10 @@
         <v>63</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>80</v>
@@ -4632,13 +4619,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="88" t="s">
         <v>245</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E13" s="88"/>
       <c r="F13" s="88"/>
@@ -4668,13 +4655,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>245</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -4929,18 +4916,18 @@
       <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94" t="s">
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93" t="s">
         <v>81</v>
       </c>
       <c r="H22" s="9" t="s">
@@ -5143,7 +5130,7 @@
         <v>309</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
@@ -5260,11 +5247,11 @@
       <c r="G31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>200</v>
+      <c r="H31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>38</v>
@@ -5286,24 +5273,24 @@
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="93" t="s">
         <v>319</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="94" t="s">
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="I32" s="94" t="s">
+      <c r="I32" s="93" t="s">
         <v>200</v>
       </c>
       <c r="J32" s="12" t="s">
@@ -5326,24 +5313,24 @@
       <c r="A33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="93" t="s">
         <v>321</v>
       </c>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="94" t="s">
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="I33" s="94" t="s">
+      <c r="I33" s="93" t="s">
         <v>200</v>
       </c>
       <c r="J33" s="15" t="s">
@@ -5362,24 +5349,24 @@
       <c r="A34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="93" t="s">
         <v>320</v>
       </c>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="94" t="s">
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="I34" s="94" t="s">
+      <c r="I34" s="93" t="s">
         <v>200</v>
       </c>
       <c r="J34" s="15" t="s">
@@ -5398,24 +5385,24 @@
       <c r="A35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="D35" s="94" t="s">
+      <c r="D35" s="93" t="s">
         <v>323</v>
       </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="94" t="s">
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="94" t="s">
+      <c r="I35" s="93" t="s">
         <v>200</v>
       </c>
       <c r="J35" s="15" t="s">
@@ -5448,11 +5435,11 @@
       <c r="G36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>200</v>
+      <c r="H36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>38</v>
@@ -5488,10 +5475,12 @@
       <c r="G37" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="12"/>
+      <c r="H37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
@@ -6348,7 +6337,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,8 +6345,9 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6375,7 +6365,7 @@
         <v>297</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F1" s="91" t="s">
         <v>308</v>
@@ -6412,7 +6402,7 @@
       </c>
       <c r="G2" s="86">
         <f>(I2/H2)*100</f>
-        <v>62.068965517241381</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="H2">
         <f>COUNTIF(C2:C33,"Tested")</f>
@@ -6420,7 +6410,7 @@
       </c>
       <c r="I2">
         <f>COUNTIF(E2:E33,"*")</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6461,364 +6451,364 @@
       <c r="E5" s="82"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="92" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="92" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="92" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="92" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="92" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="92" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="93"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="92" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="92" t="s">
-        <v>337</v>
+      <c r="E13" s="92" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="92" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="92" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E16" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="E16" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="92" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="E18" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E19" s="85"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="E19" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E20" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
+      <c r="E20" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="E21" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
+      <c r="E22" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E23" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="E23" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E24" s="85"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="E24" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E25" s="85"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="E25" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E26" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
+      <c r="E26" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="E27" s="85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="89" t="s">
         <v>257</v>
       </c>
@@ -6833,7 +6823,7 @@
       </c>
       <c r="E28" s="89"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="89" t="s">
         <v>257</v>
       </c>
@@ -6848,7 +6838,7 @@
       </c>
       <c r="E29" s="89"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
         <v>257</v>
       </c>
@@ -6863,7 +6853,7 @@
       </c>
       <c r="E30" s="89"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="89" t="s">
         <v>257</v>
       </c>
@@ -6878,7 +6868,7 @@
       </c>
       <c r="E31" s="89"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="85" t="s">
         <v>257</v>
       </c>
@@ -7098,34 +7088,34 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="95">
+      <c r="A3" s="94">
         <v>102</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="96" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
     </row>
     <row r="5" spans="1:6" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">

--- a/GG V03 Testing_161122.xlsx
+++ b/GG V03 Testing_161122.xlsx
@@ -6337,12 +6337,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I15:I16"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>

--- a/GG V03 Testing_161122.xlsx
+++ b/GG V03 Testing_161122.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OLD-Dev priority" sheetId="5" state="hidden" r:id="rId1"/>
@@ -4157,16 +4157,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="124" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,7 +4234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>6</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="O2" s="42"/>
       <c r="P2" s="42"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>6</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="O4" s="66"/>
       <c r="P4" s="38"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
         <v>6</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="O5" s="79"/>
       <c r="P5" s="38"/>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>6</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="O6" s="66"/>
       <c r="P6" s="38"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>6</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="O7" s="39"/>
       <c r="P7" s="38"/>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>16</v>
       </c>
@@ -4458,7 +4458,7 @@
       <c r="O8" s="67"/>
       <c r="P8" s="42"/>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>16</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="O9" s="40"/>
       <c r="P9" s="39"/>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>16</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="O10" s="66"/>
       <c r="P10" s="38"/>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>16</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="P11" s="38"/>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>16</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>16</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>16</v>
       </c>
@@ -4722,7 +4722,7 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
     </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>189</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>189</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>189</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="O18" s="40"/>
       <c r="P18" s="39"/>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>189</v>
       </c>
@@ -4846,7 +4846,7 @@
       <c r="O19" s="40"/>
       <c r="P19" s="38"/>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>189</v>
       </c>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="P20" s="38"/>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>189</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>191</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="O24" s="41"/>
       <c r="P24" s="41"/>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>191</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>191</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>190</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
     </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>190</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="N28" s="38"/>
       <c r="P28" s="38"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>190</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="O29" s="38"/>
       <c r="P29" s="38"/>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>190</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="O30" s="40"/>
       <c r="P30" s="39"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>190</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="O31" s="40"/>
       <c r="P31" s="38"/>
     </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
@@ -5288,10 +5288,10 @@
         <v>81</v>
       </c>
       <c r="H32" s="93" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I32" s="93" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>38</v>
@@ -5417,7 +5417,7 @@
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>190</v>
       </c>
@@ -5457,7 +5457,7 @@
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>190</v>
       </c>
@@ -5489,7 +5489,7 @@
       <c r="O37" s="38"/>
       <c r="P37" s="38"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="64" t="s">
         <v>45</v>
       </c>
@@ -5513,7 +5513,7 @@
       <c r="O38" s="42"/>
       <c r="P38" s="42"/>
     </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
         <v>45</v>
       </c>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="P40" s="38"/>
     </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="64" t="s">
         <v>45</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="O41" s="40"/>
       <c r="P41" s="39"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>45</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="O42" s="40"/>
       <c r="P42" s="38"/>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
         <v>45</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="O45" s="38"/>
       <c r="P45" s="38"/>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="64" t="s">
         <v>46</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="64" t="s">
         <v>220</v>
       </c>
@@ -5809,7 +5809,7 @@
       <c r="O47" s="38"/>
       <c r="P47" s="38"/>
     </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
         <v>221</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="O48" s="38"/>
       <c r="P48" s="38"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
         <v>222</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
         <v>223</v>
       </c>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="P50" s="38"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
         <v>224</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="O51" s="38"/>
       <c r="P51" s="38"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
         <v>225</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="O52" s="38"/>
       <c r="P52" s="38"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -5979,8 +5979,8 @@
       <c r="O53" s="38"/>
       <c r="P53" s="38"/>
     </row>
-    <row r="54" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="123.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
         <v>173</v>
       </c>
@@ -6002,7 +6002,7 @@
       <c r="O55" s="42"/>
       <c r="P55" s="42"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
         <v>173</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="O56" s="38"/>
       <c r="P56" s="38"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="64" t="s">
         <v>173</v>
       </c>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="P57" s="38"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>173</v>
       </c>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="P58" s="38"/>
     </row>
-    <row r="59" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>173</v>
       </c>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="P59" s="38"/>
     </row>
-    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
         <v>173</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="O60" s="38"/>
       <c r="P60" s="38"/>
     </row>
-    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>173</v>
       </c>
@@ -6162,7 +6162,9 @@
       <c r="O61" s="38"/>
       <c r="P61" s="38"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="64" t="s">
         <v>48</v>
       </c>
@@ -6184,7 +6186,7 @@
       <c r="O64" s="42"/>
       <c r="P64" s="42"/>
     </row>
-    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
         <v>48</v>
       </c>
@@ -6210,7 +6212,7 @@
       <c r="O65" s="38"/>
       <c r="P65" s="38"/>
     </row>
-    <row r="66" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="64" t="s">
         <v>48</v>
       </c>
@@ -6236,7 +6238,7 @@
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
     </row>
-    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
         <v>48</v>
       </c>
@@ -6262,7 +6264,7 @@
       <c r="O67" s="38"/>
       <c r="P67" s="38"/>
     </row>
-    <row r="68" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="64" t="s">
         <v>48</v>
       </c>
@@ -6288,7 +6290,7 @@
       <c r="O68" s="38"/>
       <c r="P68" s="38"/>
     </row>
-    <row r="69" spans="1:16" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="2" customFormat="1" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
         <v>48</v>
       </c>
@@ -6319,7 +6321,13 @@
       <c r="P69" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H69"/>
+  <autoFilter ref="H1:H69">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="N21" location="Describe_Rasters_Band_Propertie!A1" display="When selecting 'Band Properties' the 'Band_1' field contains many comma delimted items.. Can these be converted into fields in the results table? See LINKED Worksheet tab for example."/>
   </hyperlinks>
@@ -6335,9 +6343,9 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GG V03 Testing_161122.xlsx
+++ b/GG V03 Testing_161122.xlsx
@@ -4166,7 +4166,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="124" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4950,7 +4950,7 @@
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -4969,10 +4969,10 @@
         <v>81</v>
       </c>
       <c r="H23" s="77" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I23" s="77" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>38</v>
@@ -5309,7 +5309,7 @@
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>190</v>
       </c>
@@ -5328,10 +5328,10 @@
         <v>81</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I33" s="93" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>38</v>
@@ -5345,7 +5345,7 @@
       <c r="O33" s="38"/>
       <c r="P33" s="38"/>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>190</v>
       </c>
@@ -5364,10 +5364,10 @@
         <v>81</v>
       </c>
       <c r="H34" s="93" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I34" s="93" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>38</v>
@@ -5381,7 +5381,7 @@
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>190</v>
       </c>
@@ -5400,10 +5400,10 @@
         <v>81</v>
       </c>
       <c r="H35" s="93" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I35" s="93" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="J35" s="15" t="s">
         <v>38</v>
@@ -5547,7 +5547,7 @@
       <c r="O39" s="40"/>
       <c r="P39" s="39"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
         <v>45</v>
       </c>
@@ -5566,10 +5566,10 @@
         <v>81</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>168</v>
@@ -5683,7 +5683,7 @@
       <c r="O43" s="38"/>
       <c r="P43" s="38"/>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>45</v>
       </c>
@@ -5702,10 +5702,10 @@
         <v>81</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>168</v>

--- a/GG V03 Testing_161122.xlsx
+++ b/GG V03 Testing_161122.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dev priority gg V03'!$H$1:$H$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dev priority gg V03'!$C$1:$C$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLD-Dev priority'!$A$1:$K$58</definedName>
     <definedName name="_xlnm.Database">'OLD-DescribeRastersBandProp'!$A$1:$G$6</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="348">
   <si>
     <t>ID</t>
   </si>
@@ -1250,6 +1250,15 @@
   </si>
   <si>
     <t>Help updated</t>
+  </si>
+  <si>
+    <t>V3.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When copying data.. Output data sets all get "_tiff".. </t>
+  </si>
+  <si>
+    <t>Tested &amp; bug</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1891,6 +1900,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4163,10 +4178,10 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="124" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,12 +4291,8 @@
       <c r="G3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="12" t="s">
         <v>288</v>
       </c>
@@ -4316,12 +4327,8 @@
       <c r="G4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="12" t="s">
         <v>288</v>
       </c>
@@ -4356,12 +4363,8 @@
       <c r="G5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="12" t="s">
         <v>280</v>
       </c>
@@ -4394,12 +4397,8 @@
       <c r="G6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -4478,12 +4477,8 @@
       <c r="G9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="12" t="s">
         <v>288</v>
       </c>
@@ -4518,12 +4513,8 @@
       <c r="G10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="12" t="s">
         <v>288</v>
       </c>
@@ -4558,12 +4549,8 @@
       <c r="G11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="12" t="s">
         <v>38</v>
       </c>
@@ -4596,12 +4583,8 @@
       <c r="G12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="22" t="s">
         <v>38</v>
       </c>
@@ -4614,7 +4597,7 @@
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>16</v>
       </c>
@@ -4668,12 +4651,8 @@
       <c r="G14" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="22" t="s">
         <v>38</v>
       </c>
@@ -4704,12 +4683,8 @@
       <c r="G15" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="22" t="s">
         <v>38</v>
       </c>
@@ -4770,7 +4745,7 @@
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>189</v>
       </c>
@@ -4788,17 +4763,13 @@
       <c r="G18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12" t="s">
@@ -4808,7 +4779,7 @@
       <c r="O18" s="40"/>
       <c r="P18" s="39"/>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>189</v>
       </c>
@@ -4826,17 +4797,13 @@
       <c r="G19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="12" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="L19" s="12"/>
       <c r="M19" s="12" t="s">
@@ -4912,7 +4879,7 @@
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
@@ -4930,18 +4897,10 @@
       <c r="G22" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>234</v>
-      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12" t="s">
@@ -4950,7 +4909,7 @@
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -4968,17 +4927,13 @@
       <c r="G23" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="12" t="s">
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>234</v>
+      <c r="K23" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
@@ -5012,7 +4967,7 @@
       <c r="O24" s="41"/>
       <c r="P24" s="41"/>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>191</v>
       </c>
@@ -5030,17 +4985,13 @@
       <c r="G25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="15" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="81" t="s">
@@ -5052,7 +5003,7 @@
       <c r="O25" s="38"/>
       <c r="P25" s="38"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>191</v>
       </c>
@@ -5070,25 +5021,19 @@
       <c r="G26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="15" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>188</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N26" s="12"/>
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
     </row>
@@ -5116,7 +5061,7 @@
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
     </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>190</v>
       </c>
@@ -5136,24 +5081,20 @@
       <c r="G28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="15"/>
       <c r="N28" s="38"/>
       <c r="P28" s="38"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>190</v>
       </c>
@@ -5171,17 +5112,13 @@
       <c r="G29" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="12" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>234</v>
+      <c r="K29" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12" t="s">
@@ -5193,7 +5130,7 @@
       <c r="O29" s="38"/>
       <c r="P29" s="38"/>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>190</v>
       </c>
@@ -5211,17 +5148,13 @@
       <c r="G30" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="12" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>234</v>
+      <c r="K30" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
@@ -5229,7 +5162,7 @@
       <c r="O30" s="40"/>
       <c r="P30" s="39"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>190</v>
       </c>
@@ -5239,7 +5172,7 @@
       <c r="C31" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>316</v>
       </c>
       <c r="E31" s="12"/>
@@ -5247,17 +5180,13 @@
       <c r="G31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="15" t="s">
-        <v>234</v>
+      <c r="K31" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="12" t="s">
@@ -5269,7 +5198,7 @@
       <c r="O31" s="40"/>
       <c r="P31" s="38"/>
     </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>190</v>
       </c>
@@ -5287,17 +5216,13 @@
       <c r="G32" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="H32" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="12" t="s">
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="L32" s="12"/>
       <c r="M32" s="12" t="s">
@@ -5309,7 +5234,7 @@
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>190</v>
       </c>
@@ -5327,17 +5252,13 @@
       <c r="G33" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>234</v>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="K33" s="98" t="s">
+        <v>345</v>
       </c>
       <c r="L33" s="15"/>
       <c r="M33" s="12"/>
@@ -5345,7 +5266,7 @@
       <c r="O33" s="38"/>
       <c r="P33" s="38"/>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>190</v>
       </c>
@@ -5363,17 +5284,13 @@
       <c r="G34" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="93" t="s">
-        <v>81</v>
-      </c>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
       <c r="J34" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>234</v>
+      <c r="K34" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="12"/>
@@ -5381,7 +5298,7 @@
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>190</v>
       </c>
@@ -5399,25 +5316,15 @@
       <c r="G35" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>234</v>
-      </c>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
       <c r="L35" s="15"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="38"/>
       <c r="P35" s="38"/>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>190</v>
       </c>
@@ -5435,17 +5342,13 @@
       <c r="G36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="12" t="s">
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="L36" s="12"/>
       <c r="M36" s="12" t="s">
@@ -5457,7 +5360,7 @@
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>190</v>
       </c>
@@ -5475,14 +5378,14 @@
       <c r="G37" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>345</v>
+      </c>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -5565,12 +5468,8 @@
       <c r="G40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="12" t="s">
         <v>168</v>
       </c>
@@ -5701,12 +5600,8 @@
       <c r="G44" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H44" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="12" t="s">
         <v>168</v>
       </c>
@@ -5719,7 +5614,7 @@
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
     </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="64" t="s">
         <v>45</v>
       </c>
@@ -5737,12 +5632,8 @@
       <c r="G45" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="H45" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="77" t="s">
-        <v>200</v>
-      </c>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
       <c r="J45" s="12" t="s">
         <v>168</v>
       </c>
@@ -5961,7 +5852,7 @@
       <c r="O52" s="38"/>
       <c r="P52" s="38"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -5979,8 +5870,8 @@
       <c r="O53" s="38"/>
       <c r="P53" s="38"/>
     </row>
-    <row r="54" spans="1:16" ht="123.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="123.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
         <v>173</v>
       </c>
@@ -6002,7 +5893,7 @@
       <c r="O55" s="42"/>
       <c r="P55" s="42"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
         <v>173</v>
       </c>
@@ -6030,7 +5921,7 @@
       <c r="O56" s="38"/>
       <c r="P56" s="38"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="64" t="s">
         <v>173</v>
       </c>
@@ -6054,7 +5945,7 @@
       </c>
       <c r="P57" s="38"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>173</v>
       </c>
@@ -6078,7 +5969,7 @@
       </c>
       <c r="P58" s="38"/>
     </row>
-    <row r="59" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>173</v>
       </c>
@@ -6102,7 +5993,7 @@
       </c>
       <c r="P59" s="38"/>
     </row>
-    <row r="60" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
         <v>173</v>
       </c>
@@ -6130,7 +6021,7 @@
       <c r="O60" s="38"/>
       <c r="P60" s="38"/>
     </row>
-    <row r="61" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>173</v>
       </c>
@@ -6162,9 +6053,7 @@
       <c r="O61" s="38"/>
       <c r="P61" s="38"/>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="64" t="s">
         <v>48</v>
       </c>
@@ -6186,7 +6075,7 @@
       <c r="O64" s="42"/>
       <c r="P64" s="42"/>
     </row>
-    <row r="65" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
         <v>48</v>
       </c>
@@ -6212,7 +6101,7 @@
       <c r="O65" s="38"/>
       <c r="P65" s="38"/>
     </row>
-    <row r="66" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="64" t="s">
         <v>48</v>
       </c>
@@ -6238,7 +6127,7 @@
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
     </row>
-    <row r="67" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
         <v>48</v>
       </c>
@@ -6264,7 +6153,7 @@
       <c r="O67" s="38"/>
       <c r="P67" s="38"/>
     </row>
-    <row r="68" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="64" t="s">
         <v>48</v>
       </c>
@@ -6290,7 +6179,7 @@
       <c r="O68" s="38"/>
       <c r="P68" s="38"/>
     </row>
-    <row r="69" spans="1:16" s="2" customFormat="1" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="2" customFormat="1" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
         <v>48</v>
       </c>
@@ -6321,10 +6210,10 @@
       <c r="P69" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H69">
+  <autoFilter ref="C1:C52">
     <filterColumn colId="0">
       <filters>
-        <filter val="No"/>
+        <filter val="Raster"/>
       </filters>
     </filterColumn>
   </autoFilter>
